--- a/docs/capabilities/l21_bounded/l21_generated_rows.xlsx
+++ b/docs/capabilities/l21_bounded/l21_generated_rows.xlsx
@@ -528,17 +528,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ACT-GEN-CAP-001</t>
+          <t>ACT-GEN-CAP-011</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GEN-CAP-001</t>
+          <t>GEN-CAP-011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[Generated] Execution Replay &amp; Activity</t>
+          <t>[Generated] M28 Governance Orchestration</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CAP-CAP-001</t>
+          <t>CAP-CAP-011</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>STRICT</t>
+          <t>BOUNDED</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -593,7 +593,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>CAP-001</t>
+          <t>CAP-011</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -620,17 +620,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACT-GEN-CAP-011</t>
+          <t>ACT-GEN-CAP-016</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GEN-CAP-011</t>
+          <t>GEN-CAP-016</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[Generated] M28 Governance Orchestration</t>
+          <t>[Generated] Skill System (M2/M3)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CAP-CAP-011</t>
+          <t>CAP-CAP-016</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>CAP-011</t>
+          <t>CAP-016</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -712,17 +712,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ACT-GEN-CAP-016</t>
+          <t>ACT-GEN-CAP-002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GEN-CAP-016</t>
+          <t>GEN-CAP-002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[Generated] Skill System (M2/M3)</t>
+          <t>[Generated] Cost Simulation V2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CAP-CAP-016</t>
+          <t>CAP-CAP-002</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>CAP-016</t>
+          <t>CAP-002</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -804,17 +804,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACT-GEN-CAP-002</t>
+          <t>ACT-GEN-CAP-008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GEN-CAP-002</t>
+          <t>GEN-CAP-008</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[Generated] Cost Simulation V2</t>
+          <t>[Generated] M12 Multi-Agent Orchestration</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CAP-CAP-002</t>
+          <t>CAP-CAP-008</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>READ</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>CAP-002</t>
+          <t>CAP-008</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -896,17 +896,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ACT-GEN-CAP-008</t>
+          <t>ACT-GEN-CAP-012</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GEN-CAP-008</t>
+          <t>GEN-CAP-012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Generated] M12 Multi-Agent Orchestration</t>
+          <t>[Generated] M4 Workflow Engine</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>CAP-CAP-008</t>
+          <t>CAP-CAP-012</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>BOUNDED</t>
+          <t>STRICT</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -961,7 +961,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>CAP-008</t>
+          <t>CAP-012</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -988,17 +988,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ACT-GEN-CAP-012</t>
+          <t>ACT-GEN-CAP-020</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GEN-CAP-012</t>
+          <t>GEN-CAP-020</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[Generated] M4 Workflow Engine</t>
+          <t>[Generated] CLI Execution</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>CAP-CAP-012</t>
+          <t>CAP-CAP-020</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>STRICT</t>
+          <t>BOUNDED</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>CAP-012</t>
+          <t>CAP-020</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1080,17 +1080,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ACT-GEN-CAP-020</t>
+          <t>ACT-GEN-CAP-021</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GEN-CAP-020</t>
+          <t>GEN-CAP-021</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[Generated] CLI Execution</t>
+          <t>[Generated] SDK Execution</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>CAP-CAP-020</t>
+          <t>CAP-CAP-021</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>CAP-020</t>
+          <t>CAP-021</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1172,17 +1172,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ACT-GEN-CAP-021</t>
+          <t>ACT-GEN-CAP-001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GEN-CAP-021</t>
+          <t>GEN-CAP-001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[Generated] SDK Execution</t>
+          <t>[Generated] Execution Replay &amp; Activity</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>CAP-CAP-021</t>
+          <t>CAP-CAP-001</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>EVIDENCE</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>OBSERVE</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>BOUNDED</t>
+          <t>STRICT</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>CAP-021</t>
+          <t>CAP-001</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1816,17 +1816,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INC-GEN-CAP-001</t>
+          <t>INC-GEN-CAP-002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GEN-CAP-001</t>
+          <t>GEN-CAP-002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[Generated] Execution Replay &amp; Activity</t>
+          <t>[Generated] Cost Simulation V2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>CAP-CAP-001</t>
+          <t>CAP-CAP-002</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>STRICT</t>
+          <t>BOUNDED</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>CAP-001</t>
+          <t>CAP-002</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1908,17 +1908,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INC-GEN-CAP-002</t>
+          <t>INC-GEN-CAP-005</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GEN-CAP-002</t>
+          <t>GEN-CAP-005</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[Generated] Cost Simulation V2</t>
+          <t>[Generated] Founder Console</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1933,7 +1933,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>CAP-CAP-002</t>
+          <t>CAP-CAP-005</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>GOVERN</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>CAP-002</t>
+          <t>CAP-005</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2000,17 +2000,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INC-GEN-CAP-005</t>
+          <t>INC-GEN-CAP-009</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GEN-CAP-005</t>
+          <t>GEN-CAP-009</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[Generated] Founder Console</t>
+          <t>[Generated] M19 Policy Engine</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CAP-CAP-005</t>
+          <t>CAP-CAP-009</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>CONTROL</t>
+          <t>ACT</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>GOVERN</t>
+          <t>WRITE</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>CAP-005</t>
+          <t>CAP-009</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -2092,17 +2092,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INC-GEN-CAP-009</t>
+          <t>INC-GEN-CAP-021</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GEN-CAP-009</t>
+          <t>GEN-CAP-021</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[Generated] M19 Policy Engine</t>
+          <t>[Generated] SDK Execution</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CAP-CAP-009</t>
+          <t>CAP-CAP-021</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>READ</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>CAP-009</t>
+          <t>CAP-021</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2184,17 +2184,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INC-GEN-CAP-021</t>
+          <t>INC-GEN-CAP-001</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GEN-CAP-021</t>
+          <t>GEN-CAP-001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[Generated] SDK Execution</t>
+          <t>[Generated] Execution Replay &amp; Activity</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CAP-CAP-021</t>
+          <t>CAP-CAP-001</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2219,17 +2219,17 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>EVIDENCE</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>OBSERVE</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>BOUNDED</t>
+          <t>STRICT</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>CAP-021</t>
+          <t>CAP-001</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2276,17 +2276,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>LOG-GEN-CAP-001</t>
+          <t>LOG-GEN-CAP-002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GEN-CAP-001</t>
+          <t>GEN-CAP-002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[Generated] Execution Replay &amp; Activity</t>
+          <t>[Generated] Cost Simulation V2</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>CAP-CAP-001</t>
+          <t>CAP-CAP-002</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>STRICT</t>
+          <t>BOUNDED</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>CAP-001</t>
+          <t>CAP-002</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2368,17 +2368,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LOG-GEN-CAP-002</t>
+          <t>LOG-GEN-CAP-021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GEN-CAP-002</t>
+          <t>GEN-CAP-021</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[Generated] Cost Simulation V2</t>
+          <t>[Generated] SDK Execution</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2393,7 +2393,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>CAP-CAP-002</t>
+          <t>CAP-CAP-021</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>READ</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>CAP-002</t>
+          <t>CAP-021</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2460,17 +2460,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LOG-GEN-CAP-021</t>
+          <t>LOG-GEN-CAP-001</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GEN-CAP-021</t>
+          <t>GEN-CAP-001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[Generated] SDK Execution</t>
+          <t>[Generated] Execution Replay &amp; Activity</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>CAP-CAP-021</t>
+          <t>CAP-CAP-001</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2495,17 +2495,17 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>EVIDENCE</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>OBSERVE</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>BOUNDED</t>
+          <t>STRICT</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>CAP-021</t>
+          <t>CAP-001</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2920,17 +2920,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>POL-GEN-CAP-001</t>
+          <t>POL-GEN-CAP-005</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GEN-CAP-001</t>
+          <t>GEN-CAP-005</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[Generated] Execution Replay &amp; Activity</t>
+          <t>[Generated] Founder Console</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>CAP-CAP-001</t>
+          <t>CAP-CAP-005</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2960,17 +2960,17 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>CONTROL</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>STRICT</t>
+          <t>BOUNDED</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>GOVERN</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>CAP-001</t>
+          <t>CAP-005</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -3012,17 +3012,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>POL-GEN-CAP-005</t>
+          <t>POL-GEN-CAP-011</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GEN-CAP-005</t>
+          <t>GEN-CAP-011</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[Generated] Founder Console</t>
+          <t>[Generated] M28 Governance Orchestration</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CAP-CAP-005</t>
+          <t>CAP-CAP-011</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>CONTROL</t>
+          <t>ACT</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>GOVERN</t>
+          <t>WRITE</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>CAP-005</t>
+          <t>CAP-011</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -3104,17 +3104,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>POL-GEN-CAP-011</t>
+          <t>POL-GEN-CAP-003</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GEN-CAP-011</t>
+          <t>GEN-CAP-003</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[Generated] M28 Governance Orchestration</t>
+          <t>[Generated] Policy Proposals</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3129,7 +3129,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>CAP-CAP-011</t>
+          <t>CAP-CAP-003</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -3139,12 +3139,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>SUBSTRATE</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>EXPLAIN</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>READ</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3169,7 +3169,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>CAP-011</t>
+          <t>CAP-003</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -3196,17 +3196,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>POL-GEN-CAP-003</t>
+          <t>POL-GEN-CAP-016</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GEN-CAP-003</t>
+          <t>GEN-CAP-016</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[Generated] Policy Proposals</t>
+          <t>[Generated] Skill System (M2/M3)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CAP-CAP-003</t>
+          <t>CAP-CAP-016</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3231,12 +3231,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>SUBSTRATE</t>
+          <t>ACTION</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>EXPLAIN</t>
+          <t>ACT</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3246,7 +3246,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>READ</t>
+          <t>WRITE</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>CAP-003</t>
+          <t>CAP-016</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3288,17 +3288,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>POL-GEN-CAP-016</t>
+          <t>POL-GEN-CAP-001</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GEN-CAP-016</t>
+          <t>GEN-CAP-001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[Generated] Skill System (M2/M3)</t>
+          <t>[Generated] Execution Replay &amp; Activity</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CAP-CAP-016</t>
+          <t>CAP-CAP-001</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3323,22 +3323,22 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>EVIDENCE</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>ACT</t>
+          <t>OBSERVE</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>BOUNDED</t>
+          <t>STRICT</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>WRITE</t>
+          <t>READ</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>CAP-016</t>
+          <t>CAP-001</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
